--- a/HRMS/UploadFiles/Template/员工帐户信息导入模板.xlsx
+++ b/HRMS/UploadFiles/Template/员工帐户信息导入模板.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
@@ -19,15 +19,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>项目名称</t>
   </si>
   <si>
     <t>所在公司</t>
-  </si>
-  <si>
-    <t>所在工作地</t>
   </si>
   <si>
     <t>工号</t>
@@ -61,7 +58,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,13 +73,26 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -94,14 +104,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="适中" xfId="1" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -413,50 +428,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="A1:F1"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
